--- a/Docs/lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA4D32-89C2-A145-8383-8A06623FF834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE5DBC-CED3-F849-B651-299CBBB03E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -190,133 +190,16 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
     <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
   </si>
   <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
   </si>
   <si>
     <t>EC Identification</t>
@@ -645,9 +528,6 @@
     </r>
   </si>
   <si>
-    <t>-3.0</t>
-  </si>
-  <si>
     <t>TC1_EC</t>
   </si>
   <si>
@@ -679,13 +559,52 @@
   </si>
   <si>
     <t>-1.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>public void add(Payment payment)</t>
+  </si>
+  <si>
+    <t>F01. Pentru fiecare plata realizata se retin intr-un fisier urmatoarele detalii: masa, tipul platii (cash sau card) si valoarea achitata.</t>
+  </si>
+  <si>
+    <t>tableNumber is [1, 8]</t>
+  </si>
+  <si>
+    <t>amount is &gt;= 0.0</t>
+  </si>
+  <si>
+    <t>09. amount=1.0</t>
+  </si>
+  <si>
+    <t>05. tableNumber=1</t>
+  </si>
+  <si>
+    <t>06. tableNumber = 0</t>
+  </si>
+  <si>
+    <t>07. tableNumber = 2</t>
+  </si>
+  <si>
+    <t>08. tableNumber = 7</t>
+  </si>
+  <si>
+    <t>TC3_BVA</t>
+  </si>
+  <si>
+    <t>2. Metoda este definită la nivelul repository</t>
+  </si>
+  <si>
+    <t>Parametrii payment.amount si payment.tableNumber. Amount trebuie sa fie un double &gt;= 0, iar tableNumber un numar natural intre [1, 8]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,21 +643,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -924,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1143,17 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1286,6 +1179,26 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1294,7 +1207,7 @@
   </cellStyleXfs>
   <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,62 +1215,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1365,53 +1278,89 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1419,190 +1368,154 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,8 +1826,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1927,12 +1840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
@@ -1940,11 +1853,11 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2"/>
@@ -1960,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -1971,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
@@ -2035,8 +1948,8 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="114" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2049,27 +1962,27 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C20" s="35" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2086,7 +1999,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2103,21 +2016,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
-      <c r="B24" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="B24" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" s="38"/>
@@ -2141,7 +2054,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2163,358 +2076,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="G5" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="H6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="I6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>72</v>
+      <c r="C7" s="64" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="48"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="4">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>83</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>75</v>
+      <c r="C9" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="16">
         <v>3</v>
       </c>
-      <c r="H10" s="93" t="s">
-        <v>89</v>
+      <c r="H10" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="I10" s="13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="92" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>68</v>
+      <c r="C11" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="97">
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="92" t="s">
+      <c r="J11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="16">
         <v>5</v>
       </c>
-      <c r="H12" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="97">
-        <v>5</v>
-      </c>
-      <c r="J12" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="92" t="s">
-        <v>83</v>
+      <c r="H12" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>69</v>
+      <c r="C13" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="92"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="92"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="92"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="92"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="92"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="92"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
@@ -2529,7 +2443,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,7 +2456,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2567,222 +2480,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
+      <c r="G5" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="100" t="s">
-        <v>31</v>
+      <c r="K6" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="46" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="51">
+      <c r="B7" s="65">
         <v>1</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>72</v>
+      <c r="C7" s="79" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="63"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K8" s="10">
         <v>8</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="101" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="63"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="99" t="s">
-        <v>96</v>
+      <c r="I9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="K9" s="13">
         <v>9</v>
       </c>
-      <c r="L9" s="97" t="s">
-        <v>104</v>
+      <c r="L9" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="102" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="63"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="16">
         <v>3</v>
       </c>
-      <c r="H10" s="97">
-        <v>3</v>
-      </c>
-      <c r="I10" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="97">
-        <v>8</v>
-      </c>
-      <c r="L10" s="97" t="s">
-        <v>104</v>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="102" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="97">
-        <v>8</v>
-      </c>
-      <c r="L11" s="115" t="s">
-        <v>105</v>
+      <c r="I11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="102" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
@@ -2793,14 +2714,14 @@
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="51">
+      <c r="B13" s="65">
         <v>2</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>68</v>
+      <c r="C13" s="65" t="s">
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
@@ -2812,10 +2733,10 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="10"/>
@@ -2827,9 +2748,11 @@
       <c r="N14" s="25"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
@@ -2840,8 +2763,8 @@
       <c r="N15" s="25"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="2"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10"/>
@@ -2853,8 +2776,8 @@
       <c r="N16" s="25"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="2"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10"/>
@@ -2866,8 +2789,8 @@
       <c r="N17" s="25"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="2"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10"/>
@@ -2949,32 +2872,25 @@
       <c r="N25" s="25"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
       <c r="N28" s="32"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="I29:M29"/>
@@ -2984,6 +2900,13 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2998,8 +2921,8 @@
   </sheetPr>
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3015,97 +2938,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="F4" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="76"/>
+    </row>
+    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="98"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>49</v>
+      <c r="C6" s="115" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="21">
         <v>8</v>
       </c>
-      <c r="G6" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>83</v>
+      <c r="G6" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -3113,27 +3036,27 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F7" s="11">
         <v>9</v>
       </c>
-      <c r="G7" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>83</v>
+      <c r="G7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -3141,47 +3064,57 @@
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>83</v>
+      <c r="G8" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
@@ -3191,108 +3124,108 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="28" t="s">
+      <c r="D13" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="E13" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="103" t="s">
+      <c r="F13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
-    </row>
-    <row r="13" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="79" t="s">
+      <c r="G13" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="H13" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="69" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="68" t="s">
-        <v>61</v>
+      <c r="N13" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="68"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="106"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="29">
         <v>2</v>
@@ -3303,27 +3236,27 @@
       <c r="G15" s="34">
         <v>2</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="101">
         <v>45743</v>
       </c>
-      <c r="I15" s="77"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="30">
         <v>0</v>
       </c>
-      <c r="M15" s="116">
+      <c r="M15" s="55">
         <v>45743</v>
       </c>
       <c r="N15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="30">
         <v>0</v>
@@ -3334,6 +3267,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -3342,26 +3293,8 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3514,18 +3447,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3547,18 +3480,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>